--- a/Figure Generating/Table1_MAGs_multiple-stepwise-regression.xlsx
+++ b/Figure Generating/Table1_MAGs_multiple-stepwise-regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Juntao\Desktop\transposase-deep-ocean\Figure Generating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B3592-B8C4-4787-9FBE-F653AAD5C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD7843-2961-498E-B142-87C3A376527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6288" yWindow="108" windowWidth="16860" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Explanatory Variable(s)</t>
   </si>
@@ -92,8 +92,41 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>2.2 x 10</t>
+    <t>Table 1: Multiple Stepwise Regression for log-transformed transposase abundance in MAGs</t>
+  </si>
+  <si>
+    <r>
+      <t>1.64 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.60 x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt; 2.2 x 10</t>
     </r>
     <r>
       <rPr>
@@ -108,7 +141,7 @@
   </si>
   <si>
     <r>
-      <t>6.7 x 10</t>
+      <t>2.91 x 10</t>
     </r>
     <r>
       <rPr>
@@ -118,26 +151,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>-8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.3 x 10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-8</t>
-    </r>
-  </si>
-  <si>
-    <t>Table 1: Multiple Stepwise Regression for log-transformed transposase abundance in MAGs</t>
+      <t>-12</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -514,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +543,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>0.29099999999999998</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -558,10 +573,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
-        <v>0.47299999999999998</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -569,10 +584,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>0.371</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -580,10 +595,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>0.48599999999999999</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -591,21 +606,21 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>0.59299999999999997</v>
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
-        <v>1.6000000000000001E-4</v>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="3">
-        <v>0.622</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -613,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>0.63300000000000001</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
   </sheetData>
